--- a/similarities/split_global/harmonic_similarity_timestamps_145.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_145.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
+          <t>('0:00:00.600000', '0:00:05.900000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:34.640000', '0:00:41.660000')]</t>
+          <t>('0:00:44', '0:01:01.060000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:38.200000', '0:00:42.240000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.2']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Eb', 'F:min', 'Bb:7', 'Eb', 'F:min', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
+          <t>['G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:09.540000', '0:00:11.420000')]</t>
+          <t>('0:00:06.260000', '0:00:21.040000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:21.740249', '0:00:26.767369')]</t>
+          <t>('0:00:22.620000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=6.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=22.62</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['D:7', 'G', 'C:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['Eb:7', 'Ab', 'Db:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:43.320000', '0:00:48.710000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:04.155032', '0:00:07.525011')]</t>
+          <t>('0:01:20.690000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=43.32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=4.155032']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=80.69</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:32.040000', '0:01:44.400000')]</t>
+          <t>('0:00:00.400000', '0:00:09.040000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:36.160000', '0:00:41.200000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=36.16']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:45.720000', '0:00:49.900000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:02:24.085784', '0:02:29.240614')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:12.660000', '0:00:17.100000'), ('0:00:00.780000', '0:00:05.260000'), ('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:28.520000', '0:00:31.040000'), ('0:00:07.400000', '0:00:12.020000'), ('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=12.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=28.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj'], ['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A'], ['A:7', 'D', 'G', 'D']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:10.960000'), ('0:00:58.940000', '0:01:07.080000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:04.063000', '0:00:08.399000'), ('0:00:28.197000', '0:00:34.358000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=58.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_263</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj'], ['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['G:maj', 'C:maj', 'F:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['E', 'A', 'D:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:44.660000', '0:00:48.480000'), ('0:00:45.820000', '0:00:49.080000')]</t>
+          <t>('0:00:15.100000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.280000', '0:00:09.480000'), ('0:00:07.840000', '0:00:10.040000')]</t>
+          <t>('0:01:03.779977', '0:01:15.482834')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=44.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=45.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=15.1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=7.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=7.84']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-263#t=63.779977</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:00:34.300000', '0:00:49.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:18.160000', '0:00:47.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=18.16</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb:7/3', 'Eb:maj'], ['Eb:7', 'Ab:maj', 'Eb/3'], ['Eb:7', 'Ab:maj', 'Ab/7']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj'], ['C#:7', 'F#:maj', 'C#:maj'], ['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:42.588000', '0:00:46.723000'), ('0:00:26.006000', '0:00:29.321000'), ('0:00:54.072000', '0:00:59.053000')]</t>
+          <t>('0:01:08.640000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10', '0:00:12.580000'), ('0:00:45.820000', '0:00:48.480000'), ('0:00:20.420000', '0:00:22.860000')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=42.588', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=26.006', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=54.072']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=10.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=45.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=20.42']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'G']]</t>
+          <t>['B:min7/4', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:43.520929', '0:01:49.476848')]</t>
+          <t>('0:00:47.371000', '0:00:50.945000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+          <t>('0:01:08.800000', '0:01:16.200000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:02.612267', '0:00:20.410362')]</t>
+          <t>('0:01:17.720000', '0:01:28')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G:7', 'C']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:7', 'D:7', 'G']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:16.810929', '0:00:24.845034')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:23.810000', '0:00:30.780000')]</t>
+          <t>('0:00:10.634761', '0:00:15.986961')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=16.810929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=23.81']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
